--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E4FC0-2D1B-41C2-ADCD-2AC69E162C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Product</t>
   </si>
@@ -31,38 +48,56 @@
     <t>Current Stock (Pieces)</t>
   </si>
   <si>
-    <t>Aluminum Foil</t>
-  </si>
-  <si>
-    <t>ABC1</t>
-  </si>
-  <si>
-    <t>ABC2</t>
-  </si>
-  <si>
-    <t>ABC3</t>
-  </si>
-  <si>
-    <t>ABC4</t>
-  </si>
-  <si>
-    <t>ABC5</t>
-  </si>
-  <si>
-    <t>ABC6</t>
-  </si>
-  <si>
     <t>gm</t>
   </si>
   <si>
     <t>Pieces</t>
+  </si>
+  <si>
+    <t>Brown Paper Bag 1</t>
+  </si>
+  <si>
+    <t>Brown Paper Bag 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 CP Container </t>
+  </si>
+  <si>
+    <t>100 ML Container Basic</t>
+  </si>
+  <si>
+    <t>300 ML Container</t>
+  </si>
+  <si>
+    <t>500 ML Container</t>
+  </si>
+  <si>
+    <t>750 ML Container</t>
+  </si>
+  <si>
+    <t>Tissues</t>
+  </si>
+  <si>
+    <t>500 ML Container Basic</t>
+  </si>
+  <si>
+    <t>300 ML Container Basic</t>
+  </si>
+  <si>
+    <t>750 ML Container Basic</t>
+  </si>
+  <si>
+    <t>Butter Paper</t>
+  </si>
+  <si>
+    <t>Non woven bag 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,24 +149,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +247,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,14 +458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,125 +487,276 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <f>20/1000</f>
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>78</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>98</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.75</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>0.75</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.58</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.6767</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>67</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E4FC0-2D1B-41C2-ADCD-2AC69E162C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94DF02-52F3-4077-B935-39134A6584A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Product</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Non woven bag 1</t>
+  </si>
+  <si>
+    <t>Non woven bag 2</t>
+  </si>
+  <si>
+    <t>Non woven bag 3</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +730,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -742,7 +748,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94DF02-52F3-4077-B935-39134A6584A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F154C40F-AA99-4D79-BCAA-D8E76E2E7BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Product</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Current Stock (Pieces)</t>
   </si>
   <si>
-    <t>gm</t>
-  </si>
-  <si>
     <t>Pieces</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Non woven bag 3</t>
+  </si>
+  <si>
+    <t>30 ML Container Basic</t>
   </si>
 </sst>
 </file>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,10 +497,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>2.5</v>
@@ -533,13 +533,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D4" s="2">
         <v>98</v>
@@ -554,13 +554,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>3.95</v>
-      </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -590,64 +590,64 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -677,31 +677,33 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>0</v>
       </c>
@@ -712,13 +714,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -730,13 +732,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -748,21 +750,39 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F154C40F-AA99-4D79-BCAA-D8E76E2E7BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77279278-9336-45EA-B9FC-EBAFE611D64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Product</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>30 ML Container Basic</t>
+  </si>
+  <si>
+    <t>Zip Lock PP1</t>
   </si>
 </sst>
 </file>
@@ -155,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,16 +469,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -503,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>45</v>
@@ -521,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>78</v>
@@ -783,6 +790,24 @@
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77279278-9336-45EA-B9FC-EBAFE611D64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB002F-084D-4690-8C8C-88BFD6A2509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Product</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Pieces</t>
   </si>
   <si>
-    <t>Brown Paper Bag 1</t>
-  </si>
-  <si>
-    <t>Brown Paper Bag 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 CP Container </t>
   </si>
   <si>
@@ -100,6 +94,18 @@
   </si>
   <si>
     <t>Zip Lock PP1</t>
+  </si>
+  <si>
+    <t>25 ML Container Basic</t>
+  </si>
+  <si>
+    <t>Brown Paper Bag Small</t>
+  </si>
+  <si>
+    <t>Brown Paper Bag Large</t>
+  </si>
+  <si>
+    <t>Paper Tray</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,13 +510,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
         <v>45</v>
@@ -522,13 +528,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="2">
         <v>78</v>
@@ -546,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>1.1499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D4" s="2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -558,13 +564,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D5" s="2">
         <v>98</v>
@@ -576,16 +582,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -594,16 +600,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -612,67 +618,67 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>67</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -684,13 +690,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -702,33 +708,33 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.5</v>
-      </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
@@ -739,13 +745,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -757,13 +763,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -775,13 +781,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -793,21 +799,57 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.45</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monda\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB002F-084D-4690-8C8C-88BFD6A2509E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D59842D-74A0-4FCD-A2A4-D81C53F2C1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Product</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Paper Tray</t>
+  </si>
+  <si>
+    <t>Silver Pouch</t>
   </si>
 </sst>
 </file>
@@ -164,13 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,22 +477,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +510,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -526,7 +528,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -544,7 +546,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -562,7 +564,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -580,7 +582,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,7 +600,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -616,7 +618,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -634,7 +636,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -652,7 +654,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +672,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -688,7 +690,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -706,7 +708,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -724,7 +726,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -743,7 +745,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -761,7 +763,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -779,7 +781,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -797,7 +799,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -815,7 +817,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -833,23 +835,41 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monda\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D59842D-74A0-4FCD-A2A4-D81C53F2C1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551FDB98-DF57-4A91-A970-F3445130C7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,19 +480,19 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -521,14 +521,14 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>45</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -539,14 +539,14 @@
         <v>2.5</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>78</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -564,7 +564,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -575,14 +575,14 @@
         <v>0.95</v>
       </c>
       <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>98</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -593,14 +593,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>98</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -611,14 +611,14 @@
         <v>6</v>
       </c>
       <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -636,7 +636,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,7 +654,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -672,7 +672,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,7 +690,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -708,7 +708,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -745,7 +745,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -781,7 +781,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_5475A1EEF613C8664F4AD09319B2EACE7552A113" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C1091F-B423-487D-B709-CBA1A97F9834}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -97,44 +91,44 @@
     <t>Silver Pouch</t>
   </si>
   <si>
+    <t>250 ML Container Type 2</t>
+  </si>
+  <si>
+    <t>300 ML Container Type 2</t>
+  </si>
+  <si>
+    <t>500 ML Container Type 2</t>
+  </si>
+  <si>
+    <t>750 ML Container Type 2</t>
+  </si>
+  <si>
+    <t>1000 ML Container Type 2</t>
+  </si>
+  <si>
+    <t>250 ML Container Basic Type 2</t>
+  </si>
+  <si>
+    <t>300 ML Container Basic Type 2</t>
+  </si>
+  <si>
+    <t>500 ML Container Basic Type 2</t>
+  </si>
+  <si>
+    <t>750 ML Container Basic Type 2</t>
+  </si>
+  <si>
+    <t>1000 ML Container Basic Type 2</t>
+  </si>
+  <si>
     <t>Pieces</t>
-  </si>
-  <si>
-    <t>300 ML Container Type 2</t>
-  </si>
-  <si>
-    <t>500 ML Container Type 2</t>
-  </si>
-  <si>
-    <t>750 ML Container Type 2</t>
-  </si>
-  <si>
-    <t>500 ML Container Basic Type 2</t>
-  </si>
-  <si>
-    <t>300 ML Container Basic Type 2</t>
-  </si>
-  <si>
-    <t>750 ML Container Basic Type 2</t>
-  </si>
-  <si>
-    <t>1000 ML Container Basic Type 2</t>
-  </si>
-  <si>
-    <t>1000 ML Container Type 2</t>
-  </si>
-  <si>
-    <t>250 ML Container Type 2</t>
-  </si>
-  <si>
-    <t>250 ML Container Basic Type 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,21 +191,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -283,7 +269,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,10 +303,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,23 +478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,12 +502,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -544,12 +519,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -558,15 +533,15 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -578,12 +553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.95</v>
@@ -592,15 +567,15 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -612,12 +587,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -629,12 +604,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>3.95</v>
@@ -646,12 +621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>3.5</v>
@@ -663,12 +638,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -680,12 +655,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>3.45</v>
@@ -697,12 +672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -714,12 +689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -731,12 +706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -748,12 +723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>1.5</v>
@@ -765,12 +740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -782,12 +757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>2.5</v>
@@ -799,12 +774,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -816,12 +791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>0.45</v>
@@ -833,12 +808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -850,12 +825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>0.4</v>
@@ -867,15 +842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -884,12 +859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>2.8</v>
@@ -901,12 +876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>3.3</v>
@@ -918,15 +893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -935,12 +910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>5.3</v>
@@ -952,12 +927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>1.65</v>
@@ -969,12 +944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>2.1</v>
@@ -986,15 +961,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1003,12 +978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>3.4</v>
@@ -1020,12 +995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>3.7</v>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Product</t>
   </si>
@@ -121,7 +121,13 @@
     <t>1000 ML Container Basic Type 2</t>
   </si>
   <si>
+    <t xml:space="preserve">750 ML Container Basic </t>
+  </si>
+  <si>
     <t>Pieces</t>
+  </si>
+  <si>
+    <t>900</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -516,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -533,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -558,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>0.95</v>
@@ -567,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>134</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -575,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -584,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -592,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -601,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>3.95</v>
@@ -626,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>3.5</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -643,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -652,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -660,7 +666,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>3.45</v>
@@ -677,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -694,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -711,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -728,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>1.5</v>
@@ -745,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -762,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>2.5</v>
@@ -779,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -796,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>0.45</v>
@@ -813,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -830,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>0.4</v>
@@ -847,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>2.3</v>
@@ -864,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2.8</v>
@@ -881,7 +887,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>3.3</v>
@@ -898,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>4.6</v>
@@ -915,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>5.3</v>
@@ -932,7 +938,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>1.65</v>
@@ -949,7 +955,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2.1</v>
@@ -966,7 +972,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>2.2</v>
@@ -975,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -983,7 +989,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>3.4</v>
@@ -992,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>950</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1000,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>3.7</v>
@@ -1010,6 +1016,23 @@
       </c>
       <c r="E31">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Product</t>
   </si>
@@ -124,10 +124,28 @@
     <t xml:space="preserve">750 ML Container Basic </t>
   </si>
   <si>
+    <t>Black Garbage Bag 42*45</t>
+  </si>
+  <si>
+    <t>LDPE Pouch</t>
+  </si>
+  <si>
+    <t>White Square Box</t>
+  </si>
+  <si>
+    <t>White Square Box small</t>
+  </si>
+  <si>
+    <t>75 ML Container Basic</t>
+  </si>
+  <si>
     <t>Pieces</t>
   </si>
   <si>
     <t>900</t>
+  </si>
+  <si>
+    <t>gm</t>
   </si>
 </sst>
 </file>
@@ -485,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -530,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -547,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -564,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>0.95</v>
@@ -581,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -598,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -615,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>3.95</v>
@@ -632,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>3.5</v>
@@ -649,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -666,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>3.45</v>
@@ -683,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -700,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -717,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -734,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1.5</v>
@@ -751,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -768,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>2.5</v>
@@ -785,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -802,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>0.45</v>
@@ -819,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -836,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>0.4</v>
@@ -853,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>2.3</v>
@@ -870,7 +888,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>2.8</v>
@@ -887,7 +905,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>3.3</v>
@@ -904,7 +922,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>4.6</v>
@@ -921,7 +939,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>5.3</v>
@@ -938,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>1.65</v>
@@ -955,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>2.1</v>
@@ -972,7 +990,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>2.2</v>
@@ -989,7 +1007,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>3.4</v>
@@ -1006,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>3.7</v>
@@ -1023,7 +1041,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1032,6 +1050,91 @@
         <v>0</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>28.56</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>0.22</v>
+      </c>
+      <c r="D34">
+        <v>800</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>0.75</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>900</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>900</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1081,7 +1081,7 @@
         <v>0.22</v>
       </c>
       <c r="D34">
-        <v>800</v>
+        <v>448</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>900</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Product</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>75 ML Container Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Box Big </t>
+  </si>
+  <si>
+    <t>Paper Box small</t>
+  </si>
+  <si>
+    <t>Rubber Band</t>
+  </si>
+  <si>
+    <t>White Polythi</t>
   </si>
   <si>
     <t>Pieces</t>
@@ -503,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -548,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -565,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -582,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0.95</v>
@@ -599,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -616,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -633,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3.95</v>
@@ -650,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>3.5</v>
@@ -667,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -684,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>3.45</v>
@@ -701,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -718,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -735,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -752,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1.5</v>
@@ -769,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -786,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>2.5</v>
@@ -803,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -820,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>0.45</v>
@@ -837,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -854,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>0.4</v>
@@ -871,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>2.3</v>
@@ -888,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>2.8</v>
@@ -905,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>3.3</v>
@@ -922,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>4.6</v>
@@ -939,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>5.3</v>
@@ -956,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>1.65</v>
@@ -973,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>2.1</v>
@@ -990,7 +1002,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>2.2</v>
@@ -1007,7 +1019,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>3.4</v>
@@ -1024,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>3.7</v>
@@ -1041,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1058,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>28.56</v>
@@ -1067,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1075,7 +1087,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>0.22</v>
@@ -1092,7 +1104,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1101,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1109,7 +1121,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>0.75</v>
@@ -1118,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1126,7 +1138,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1136,6 +1148,74 @@
       </c>
       <c r="E37">
         <v>1164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>3.5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>2.3</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>0.3</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>0.12</v>
+      </c>
+      <c r="D41">
+        <v>726</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Product</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>White Polythi</t>
+  </si>
+  <si>
+    <t>4.5 X 4.5 Paper Box</t>
+  </si>
+  <si>
+    <t>5 X 5 Paper Box</t>
+  </si>
+  <si>
+    <t>Garbage Bag Pack Of 30</t>
   </si>
   <si>
     <t>Pieces</t>
@@ -515,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -560,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -577,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -594,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>0.95</v>
@@ -603,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>878</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -628,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -645,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>3.95</v>
@@ -662,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>3.5</v>
@@ -679,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -696,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>3.45</v>
@@ -713,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -730,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -747,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -756,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>54</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -764,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>1.5</v>
@@ -781,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -798,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>2.5</v>
@@ -815,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -832,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>0.45</v>
@@ -849,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -866,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>0.4</v>
@@ -883,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>2.3</v>
@@ -900,7 +909,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>2.8</v>
@@ -917,7 +926,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>3.3</v>
@@ -934,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>4.6</v>
@@ -951,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>5.3</v>
@@ -968,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>1.65</v>
@@ -985,7 +994,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>2.1</v>
@@ -1002,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>2.2</v>
@@ -1019,7 +1028,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>3.4</v>
@@ -1036,7 +1045,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>3.7</v>
@@ -1053,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1070,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>28.56</v>
@@ -1087,13 +1096,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>0.22</v>
       </c>
       <c r="D34">
-        <v>448</v>
+        <v>3870</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1104,7 +1113,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1121,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>0.75</v>
@@ -1138,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1155,7 +1164,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>3.5</v>
@@ -1172,7 +1181,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>2.3</v>
@@ -1189,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>0.3</v>
@@ -1206,16 +1215,67 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>0.12</v>
       </c>
       <c r="D41">
-        <v>726</v>
+        <v>350</v>
       </c>
       <c r="E41">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>0.75</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>0.85</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Packaging_Material_List.xlsx
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>778</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1221,7 +1221,7 @@
         <v>0.12</v>
       </c>
       <c r="D41">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
